--- a/trunk/PROJET/CRA/CRA-RESTIT-SAS-07-02-11.xlsx
+++ b/trunk/PROJET/CRA/CRA-RESTIT-SAS-07-02-11.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +960,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
       <c r="H6" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -973,7 +973,9 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
@@ -1013,7 +1015,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="3">
         <f>SUM(H6:H9)</f>
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
